--- a/Analyses/part_II/outputs/02_analyses_CAMs/Leiden algorithm aggregated CAM/LeidenAlgorithm_hypotheses.xlsx
+++ b/Analyses/part_II/outputs/02_analyses_CAMs/Leiden algorithm aggregated CAM/LeidenAlgorithm_hypotheses.xlsx
@@ -151,7 +151,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C4" t="n">
         <v>0.13</v>
@@ -168,7 +168,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C5" t="n">
         <v>0.19500000000000006</v>
@@ -216,7 +216,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B8" t="n">
         <v>6.0</v>
@@ -233,7 +233,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B9" t="n">
         <v>6.0</v>
@@ -270,7 +270,7 @@
         <v>1.0</v>
       </c>
       <c r="B11" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C11" t="n">
         <v>1.155</v>
@@ -287,7 +287,7 @@
         <v>1.0</v>
       </c>
       <c r="B12" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C12" t="n">
         <v>1.22</v>
@@ -327,10 +327,10 @@
         <v>1.745</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -338,7 +338,7 @@
         <v>2.0</v>
       </c>
       <c r="B15" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C15" t="n">
         <v>1.7799999999999998</v>
@@ -355,7 +355,7 @@
         <v>2.0</v>
       </c>
       <c r="B16" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C16" t="n">
         <v>1.845</v>
